--- a/WEEK1.xlsx
+++ b/WEEK1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tishy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\CLG\5th_sem\multimedia\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686FF35D-A40D-412C-86B7-EF80777117AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9784AED-82D7-4495-A723-112D56C8362F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1576,7 +1576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1587,9 +1587,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1599,20 +1596,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1626,16 +1617,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1944,11 +1938,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="70" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="1"/>
     <col min="3" max="3" width="39.36328125" style="1" customWidth="1"/>
@@ -1962,21 +1956,21 @@
     <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2008,1711 +2002,1711 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
+    <row r="3" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="15"/>
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="15"/>
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="16"/>
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J6" s="15" t="s">
+      <c r="I6" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
+    <row r="7" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J9" s="11" t="s">
+      <c r="I9" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="16"/>
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J10" s="15" t="s">
+      <c r="I10" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4">
+    <row r="11" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="14">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="I11" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="15"/>
+      <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J12" s="11" t="s">
+      <c r="I12" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="15"/>
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J13" s="11" t="s">
+      <c r="I13" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
+    <row r="14" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="16"/>
+      <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J14" s="15" t="s">
+      <c r="I14" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J14" s="12" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="4">
+    <row r="15" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="14">
         <v>4</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="I15" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="15"/>
+      <c r="B16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J16" s="11" t="s">
+      <c r="I16" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="15"/>
+      <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J17" s="11" t="s">
+      <c r="I17" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13" t="s">
+    <row r="18" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="16"/>
+      <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="I18" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="J18" s="15" t="s">
+      <c r="I18" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="4">
+    <row r="19" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="14">
         <v>5</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="I19" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="15"/>
+      <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J20" s="11" t="s">
+      <c r="I20" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
+    <row r="21" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="15"/>
+      <c r="B21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J21" s="11" t="s">
+      <c r="I21" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13" t="s">
+    <row r="22" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="16"/>
+      <c r="B22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="I22" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="J22" s="15" t="s">
+      <c r="I22" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="J22" s="12" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="17">
+    <row r="23" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="18">
         <v>6</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="J23" s="18" t="s">
+      <c r="I23" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18" t="s">
+    <row r="24" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="18"/>
+      <c r="B24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J24" s="18" t="s">
+      <c r="I24" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18" t="s">
+    <row r="25" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="18"/>
+      <c r="B25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J25" s="18" t="s">
+      <c r="I25" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18" t="s">
+    <row r="26" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="18"/>
+      <c r="B26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J26" s="18" t="s">
+      <c r="I26" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="4">
+    <row r="27" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="14">
         <v>7</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="I27" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
+    <row r="28" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="15"/>
+      <c r="B28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J28" s="11" t="s">
+      <c r="I28" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9" t="s">
+    <row r="29" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="15"/>
+      <c r="B29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J29" s="11" t="s">
+      <c r="I29" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J29" s="9" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13" t="s">
+    <row r="30" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="16"/>
+      <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="I30" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="J30" s="15" t="s">
+      <c r="I30" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="J30" s="12" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="4">
+    <row r="31" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="14">
         <v>8</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="I31" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J31" s="6" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9" t="s">
+    <row r="32" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="15"/>
+      <c r="B32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J32" s="11" t="s">
+      <c r="I32" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J32" s="9" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9" t="s">
+    <row r="33" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="15"/>
+      <c r="B33" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J33" s="11" t="s">
+      <c r="I33" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J33" s="9" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13" t="s">
+    <row r="34" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="16"/>
+      <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="I34" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="J34" s="15" t="s">
+      <c r="I34" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="J34" s="12" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="4">
+    <row r="35" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="14">
         <v>9</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="I35" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9" t="s">
+    <row r="36" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="15"/>
+      <c r="B36" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J36" s="11" t="s">
+      <c r="I36" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9" t="s">
+    <row r="37" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="15"/>
+      <c r="B37" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="I37" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J37" s="11" t="s">
+      <c r="I37" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J37" s="9" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13" t="s">
+    <row r="38" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="16"/>
+      <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="I38" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="J38" s="15" t="s">
+      <c r="I38" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="J38" s="12" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4">
+    <row r="39" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="14">
         <v>10</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J39" s="7" t="s">
+      <c r="I39" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9" t="s">
+    <row r="40" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="15"/>
+      <c r="B40" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="I40" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J40" s="11" t="s">
+      <c r="I40" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J40" s="9" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9" t="s">
+    <row r="41" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="15"/>
+      <c r="B41" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J41" s="11" t="s">
+      <c r="I41" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J41" s="9" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13" t="s">
+    <row r="42" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="16"/>
+      <c r="B42" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="I42" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="J42" s="15" t="s">
+      <c r="I42" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="J42" s="12" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="4">
+    <row r="43" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="14">
         <v>11</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="I43" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J43" s="7" t="s">
+      <c r="I43" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J43" s="6" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9" t="s">
+    <row r="44" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="15"/>
+      <c r="B44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J44" s="11" t="s">
+      <c r="I44" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J44" s="9" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9" t="s">
+    <row r="45" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="15"/>
+      <c r="B45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J45" s="11" t="s">
+      <c r="I45" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J45" s="9" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13" t="s">
+    <row r="46" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="16"/>
+      <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="I46" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="J46" s="15" t="s">
+      <c r="I46" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="J46" s="12" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4">
+    <row r="47" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="14">
         <v>12</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="I47" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J47" s="7" t="s">
+      <c r="I47" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J47" s="6" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9" t="s">
+    <row r="48" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="15"/>
+      <c r="B48" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J48" s="11" t="s">
+      <c r="I48" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J48" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9" t="s">
+    <row r="49" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="15"/>
+      <c r="B49" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="I49" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J49" s="11" t="s">
+      <c r="I49" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J49" s="9" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13" t="s">
+    <row r="50" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="16"/>
+      <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="I50" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="J50" s="15" t="s">
+      <c r="I50" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="J50" s="12" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="4">
+    <row r="51" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="14">
         <v>13</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="I51" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J51" s="7" t="s">
+      <c r="I51" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J51" s="6" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9" t="s">
+    <row r="52" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="15"/>
+      <c r="B52" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H52" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="I52" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J52" s="11" t="s">
+      <c r="I52" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J52" s="9" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9" t="s">
+    <row r="53" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="15"/>
+      <c r="B53" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J53" s="11" t="s">
+      <c r="I53" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J53" s="9" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="12"/>
-      <c r="B54" s="13" t="s">
+    <row r="54" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="16"/>
+      <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="H54" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="I54" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="J54" s="15" t="s">
+      <c r="I54" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="J54" s="12" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="4">
+    <row r="55" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="14">
         <v>14</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="I55" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J55" s="7" t="s">
+      <c r="I55" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J55" s="6" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9" t="s">
+    <row r="56" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="15"/>
+      <c r="B56" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="H56" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="I56" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J56" s="11" t="s">
+      <c r="I56" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J56" s="9" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="9" t="s">
+    <row r="57" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="15"/>
+      <c r="B57" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H57" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="I57" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J57" s="11" t="s">
+      <c r="I57" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J57" s="9" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="12"/>
-      <c r="B58" s="13" t="s">
+    <row r="58" spans="1:10" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="16"/>
+      <c r="B58" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F58" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="G58" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="H58" s="13" t="s">
+      <c r="H58" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="I58" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="J58" s="15" t="s">
+      <c r="I58" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="J58" s="12" t="s">
         <v>456</v>
       </c>
     </row>
